--- a/Cube-War-v2/Assets/Resources/_Data/ChessData.xlsx
+++ b/Cube-War-v2/Assets/Resources/_Data/ChessData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\unity_projects\Cube-War\Cube-War-v2\Assets\Resources\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\game-project\CWV2\Cube-War-v2\Assets\Resources\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883C01C1-2BCB-44DD-B041-9A8B096561C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E3FE9-B4A2-4C55-A553-9C0F57A445F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Cube-War-v2/Assets/Resources/_Data/ChessData.xlsx
+++ b/Cube-War-v2/Assets/Resources/_Data/ChessData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\game-project\CWV2\Cube-War-v2\Assets\Resources\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E3FE9-B4A2-4C55-A553-9C0F57A445F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D62494-60F0-4B61-8C2A-51F1227942A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>ChessName</t>
   </si>
@@ -154,9 +154,6 @@
     <t>ATK20%最近的给一名队友加盾，减免50%伤害，持续3秒---------&gt;ATK60</t>
   </si>
   <si>
-    <t>ATK偷攻击速度,有几率给全队增加攻速</t>
-  </si>
-  <si>
     <t>ATK有几率给全体队友回血</t>
   </si>
   <si>
@@ -203,6 +200,12 @@
   </si>
   <si>
     <t>吸血光环 10 20 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">偷取速度0.1， 0.2， 0.3，    </t>
+  </si>
+  <si>
+    <t>ATK偷攻击速度，并增加自己的攻速，持续2秒，CD3秒，有30， 40， 50%几率双倍增加效果。</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -270,6 +273,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -390,7 +407,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -645,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +677,7 @@
     <col min="22" max="22" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -754,7 +771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -801,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -848,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -888,6 +905,9 @@
       <c r="M5">
         <v>1</v>
       </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
       <c r="P5" t="s">
         <v>37</v>
       </c>
@@ -895,7 +915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -943,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -991,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1038,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1083,8 +1103,14 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AE9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1129,8 +1155,14 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AE10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1171,13 +1203,19 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AE11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1223,8 +1261,14 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AE12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1270,8 +1314,14 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AE13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1312,16 +1362,16 @@
         <v>5</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +1418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1456,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W17" t="s">
         <v>33</v>
@@ -1513,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -1605,7 +1655,7 @@
         <v>4</v>
       </c>
       <c r="P20" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
         <v>34</v>
@@ -1658,6 +1708,9 @@
         <f>M20</f>
         <v>4</v>
       </c>
+      <c r="P21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1748,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W23" t="s">
         <v>35</v>
@@ -1855,57 +1908,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="P27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="P28" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="P29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="P30" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="P31" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="P16">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>$C2=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD100">
-    <cfRule type="expression" dxfId="4" priority="9">
+  <conditionalFormatting sqref="A6:XFD26 A32:XFD100 A27:O31 S27:XFD31 A1:Y5 AC1:XFD5">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$C1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$C1=2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1997,6 +2010,14 @@
           <x14:id>{8A933FFF-34EA-422A-BAFD-BB39F07CB435}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AG13">
+    <cfRule type="expression" dxfId="4" priority="15">
+      <formula>$C27=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>$C27=2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
